--- a/docs/test cases/DVM_PKG/verification_templates/category_7_DVM_config_error_verification_1.xlsx
+++ b/docs/test cases/DVM_PKG/verification_templates/category_7_DVM_config_error_verification_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Export Worksheet" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="25">
   <si>
     <t>ERR_SOURCE</t>
   </si>
@@ -79,6 +79,24 @@
   </si>
   <si>
     <t>Data Stream Validation Rule Error (no active validation rules) - The Data Stream (CCD_TEST3) currently has no active validation rules, at least one active validation rule must be defined for the given data stream before it can be used to validate data</t>
+  </si>
+  <si>
+    <t>Data Stream Parent Table Error (Not Enabled) - The Data Stream Code (CCD_TEST4) has a parent table (DVM_ISSUES_HIST) that has not been enabled in the DVM</t>
+  </si>
+  <si>
+    <t>Data Stream Parent Table Error (Not Enabled) - The Data Stream Code (CCD_TEST5) has a parent table (DVM_ISS_SEVERITY_HIST) that has not been enabled in the DVM</t>
+  </si>
+  <si>
+    <t>Data Stream Parent Table Error (Primary Key) - The Data Stream Code (CCD_TEST4) has a parent table (DVM_ISSUES_HIST) that does not have a single numeric primary key defined for it</t>
+  </si>
+  <si>
+    <t>Data Stream Parent Table Error (Primary Key) - The Data Stream Code (CCD_TEST5) has a parent table (DVM_ISS_SEVERITY_HIST) that does not have a single numeric primary key defined for it</t>
+  </si>
+  <si>
+    <t>Data Stream Validation Rule Error (no active validation rules) - The Data Stream (CCD_TEST4) currently has no active validation rules, at least one active validation rule must be defined for the given data stream before it can be used to validate data</t>
+  </si>
+  <si>
+    <t>Data Stream Validation Rule Error (no active validation rules) - The Data Stream (CCD_TEST5) currently has no active validation rules, at least one active validation rule must be defined for the given data stream before it can be used to validate data</t>
   </si>
 </sst>
 </file>
@@ -94,12 +112,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -114,10 +138,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -403,11 +430,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B13"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,63 +484,111 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -522,10 +597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,54 +653,102 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
@@ -638,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,7 +859,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'Export Worksheet'!A7</f>
-        <v>Inactive Validation Rules/QC Objects (DVM_ISS_TYPES/DVM_QC_OBJECTS)</v>
+        <v>Data Stream (DVM_DATA_STREAMS)</v>
       </c>
       <c r="B7" t="b">
         <f>EXACT('Export Worksheet'!A7,'Database Export'!A7)</f>
@@ -750,7 +873,7 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'Export Worksheet'!A8</f>
-        <v>Inactive Validation Rules/QC Objects (DVM_ISS_TYPES/DVM_QC_OBJECTS)</v>
+        <v>Data Stream (DVM_DATA_STREAMS)</v>
       </c>
       <c r="B8" t="b">
         <f>EXACT('Export Worksheet'!A8,'Database Export'!A8)</f>
@@ -764,7 +887,7 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>'Export Worksheet'!A9</f>
-        <v>Issue Type Application Link Template Placeholders (DVM_ISS_TYPES.APP_LINK_TEMPLATE)</v>
+        <v>Data Stream (DVM_DATA_STREAMS)</v>
       </c>
       <c r="B9" t="b">
         <f>EXACT('Export Worksheet'!A9,'Database Export'!A9)</f>
@@ -778,7 +901,7 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'Export Worksheet'!A10</f>
-        <v>Issue Type Application Link Template Placeholders (DVM_ISS_TYPES.APP_LINK_TEMPLATE)</v>
+        <v>Data Stream (DVM_DATA_STREAMS)</v>
       </c>
       <c r="B10" t="b">
         <f>EXACT('Export Worksheet'!A10,'Database Export'!A10)</f>
@@ -792,7 +915,7 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'Export Worksheet'!A11</f>
-        <v>Issue Type Issue Description Template Placeholders (DVM_ISS_TYPES.ISS_TYPE_COMMENT_TEMPLATE)</v>
+        <v>Inactive Validation Rules/QC Objects (DVM_ISS_TYPES/DVM_QC_OBJECTS)</v>
       </c>
       <c r="B11" t="b">
         <f>EXACT('Export Worksheet'!A11,'Database Export'!A11)</f>
@@ -806,7 +929,7 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>'Export Worksheet'!A12</f>
-        <v>Issue Type Issue Description Template Placeholders (DVM_ISS_TYPES.ISS_TYPE_COMMENT_TEMPLATE)</v>
+        <v>Inactive Validation Rules/QC Objects (DVM_ISS_TYPES/DVM_QC_OBJECTS)</v>
       </c>
       <c r="B12" t="b">
         <f>EXACT('Export Worksheet'!A12,'Database Export'!A12)</f>
@@ -818,9 +941,9 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" t="str">
         <f>'Export Worksheet'!A13</f>
-        <v>0</v>
+        <v>Inactive Validation Rules/QC Objects (DVM_ISS_TYPES/DVM_QC_OBJECTS)</v>
       </c>
       <c r="B13" t="b">
         <f>EXACT('Export Worksheet'!A13,'Database Export'!A13)</f>
@@ -832,9 +955,9 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" t="str">
         <f>'Export Worksheet'!A14</f>
-        <v>0</v>
+        <v>Inactive Validation Rules/QC Objects (DVM_ISS_TYPES/DVM_QC_OBJECTS)</v>
       </c>
       <c r="B14" t="b">
         <f>EXACT('Export Worksheet'!A14,'Database Export'!A14)</f>
@@ -846,9 +969,9 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" t="str">
         <f>'Export Worksheet'!A15</f>
-        <v>0</v>
+        <v>Issue Type Application Link Template Placeholders (DVM_ISS_TYPES.APP_LINK_TEMPLATE)</v>
       </c>
       <c r="B15" t="b">
         <f>EXACT('Export Worksheet'!A15,'Database Export'!A15)</f>
@@ -860,9 +983,9 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" t="str">
         <f>'Export Worksheet'!A16</f>
-        <v>0</v>
+        <v>Issue Type Application Link Template Placeholders (DVM_ISS_TYPES.APP_LINK_TEMPLATE)</v>
       </c>
       <c r="B16" t="b">
         <f>EXACT('Export Worksheet'!A16,'Database Export'!A16)</f>
@@ -874,9 +997,9 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" t="str">
         <f>'Export Worksheet'!A17</f>
-        <v>0</v>
+        <v>Issue Type Issue Description Template Placeholders (DVM_ISS_TYPES.ISS_TYPE_COMMENT_TEMPLATE)</v>
       </c>
       <c r="B17" t="b">
         <f>EXACT('Export Worksheet'!A17,'Database Export'!A17)</f>
@@ -888,9 +1011,9 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" t="str">
         <f>'Export Worksheet'!A18</f>
-        <v>0</v>
+        <v>Issue Type Issue Description Template Placeholders (DVM_ISS_TYPES.ISS_TYPE_COMMENT_TEMPLATE)</v>
       </c>
       <c r="B18" t="b">
         <f>EXACT('Export Worksheet'!A18,'Database Export'!A18)</f>

--- a/docs/test cases/DVM_PKG/verification_templates/category_7_DVM_config_error_verification_1.xlsx
+++ b/docs/test cases/DVM_PKG/verification_templates/category_7_DVM_config_error_verification_1.xlsx
@@ -33,70 +33,70 @@
     <t>Active Validation Rule Set (DVM_RULE_SETS)</t>
   </si>
   <si>
-    <t>Data Stream Validation Rule Set Error (multiple active rule sets) - The Data Stream (CCD_TEST) has more than one (2) active validation rule set associated with it, only one rule set for each data stream should be active at any given time</t>
-  </si>
-  <si>
     <t>Data Stream (DVM_DATA_STREAMS)</t>
   </si>
   <si>
-    <t>Data Stream Parent Table Error (Not Enabled) - The Data Stream Code (CCD_TEST) has a parent table (DVM_ISS_TYP_ASSOC) that has not been enabled in the DVM</t>
-  </si>
-  <si>
-    <t>Data Stream Parent Table Error (Not Enabled) - The Data Stream Code (CCD_TEST2) has a parent table (CCD_CRUISE_LEGS) that has not been enabled in the DVM</t>
-  </si>
-  <si>
     <t>Data Stream Parent Table Error (Primary Key) - The Data Stream Code (CCD_TEST) has a parent table (DVM_ISS_TYP_ASSOC) that does not have a single numeric primary key defined for it</t>
   </si>
   <si>
     <t>Inactive Validation Rules/QC Objects (DVM_ISS_TYPES/DVM_QC_OBJECTS)</t>
   </si>
   <si>
-    <t>Data Stream Validation Rule Error (no active validation rules) - The Data Stream (CCD_TEST2) currently has no active validation rules, at least one active validation rule must be defined for the given data stream before it can be used to validate data</t>
-  </si>
-  <si>
     <t>Issue Type Application Link Template Placeholders (DVM_ISS_TYPES.APP_LINK_TEMPLATE)</t>
   </si>
   <si>
-    <t>Unmatched Template Placeholders (Application Link) - The Issue Type "Invalid Cruise Name" for the "CCD_QC_CRUISE_V" QC view has an Application Link Template that has one or more unmatched placeholders (ABC, DEF), either remove the placeholders or update the QC view to include the additional fields</t>
-  </si>
-  <si>
-    <t>Unmatched Template Placeholders (Application Link) - The Issue Type "Vessel Leg Overlap" for the "CCD_QC_LEG_OVERLAP_V" QC view has an Application Link Template that has one or more unmatched placeholders (GHI, JKL), either remove the placeholders or update the QC view to include the additional fields</t>
-  </si>
-  <si>
     <t>Issue Type Issue Description Template Placeholders (DVM_ISS_TYPES.ISS_TYPE_COMMENT_TEMPLATE)</t>
   </si>
   <si>
-    <t>Unmatched Template Placeholders (Issue Description) - The Issue Type "Invalid Cruise Name" for the "CCD_QC_CRUISE_V" QC view has an Issue Description Template that has one or more unmatched placeholders (ABC, DEF), either remove the placeholders or update the QC view to include the additional fields</t>
-  </si>
-  <si>
-    <t>Unmatched Template Placeholders (Issue Description) - The Issue Type "Vessel Leg Overlap" for the "CCD_QC_LEG_OVERLAP_V" QC view has an Issue Description Template that has one or more unmatched placeholders (XYZ), either remove the placeholders or update the QC view to include the additional fields</t>
-  </si>
-  <si>
     <t>select * from DVM_STD_QC_ALL_RPT_V</t>
   </si>
   <si>
     <t>Data Stream Parent Table Error (Does Not Exist) - The Data Stream Code (CCD_TEST3) has a parent table (CCD_ABC) that does not exist</t>
   </si>
   <si>
-    <t>Data Stream Validation Rule Error (no active validation rules) - The Data Stream (CCD_TEST3) currently has no active validation rules, at least one active validation rule must be defined for the given data stream before it can be used to validate data</t>
-  </si>
-  <si>
-    <t>Data Stream Parent Table Error (Not Enabled) - The Data Stream Code (CCD_TEST4) has a parent table (DVM_ISSUES_HIST) that has not been enabled in the DVM</t>
-  </si>
-  <si>
-    <t>Data Stream Parent Table Error (Not Enabled) - The Data Stream Code (CCD_TEST5) has a parent table (DVM_ISS_SEVERITY_HIST) that has not been enabled in the DVM</t>
-  </si>
-  <si>
     <t>Data Stream Parent Table Error (Primary Key) - The Data Stream Code (CCD_TEST4) has a parent table (DVM_ISSUES_HIST) that does not have a single numeric primary key defined for it</t>
   </si>
   <si>
     <t>Data Stream Parent Table Error (Primary Key) - The Data Stream Code (CCD_TEST5) has a parent table (DVM_ISS_SEVERITY_HIST) that does not have a single numeric primary key defined for it</t>
   </si>
   <si>
-    <t>Data Stream Validation Rule Error (no active validation rules) - The Data Stream (CCD_TEST4) currently has no active validation rules, at least one active validation rule must be defined for the given data stream before it can be used to validate data</t>
-  </si>
-  <si>
-    <t>Data Stream Validation Rule Error (no active validation rules) - The Data Stream (CCD_TEST5) currently has no active validation rules, at least one active validation rule must be defined for the given data stream before it can be used to validate data</t>
+    <t>Data Stream Validation Rule Set Error (multiple active rule sets) - The Data Stream (CCD_TEST) has more than one (2) active validation rule set associated with it, only one rule set for each data stream should be active at any given time.  Please contact the software developer for troubleshooting support</t>
+  </si>
+  <si>
+    <t>Data Stream Parent Table Error (Not Enabled) - The Data Stream Code (CCD_TEST) has a parent table (DVM_ISS_TYP_ASSOC) that has not been enabled in the DVM (this requires the parent table to have a NUMBER field named PTA_ISS_ID)</t>
+  </si>
+  <si>
+    <t>Data Stream Parent Table Error (Not Enabled) - The Data Stream Code (CCD_TEST2) has a parent table (CCD_CRUISE_LEGS) that has not been enabled in the DVM (this requires the parent table to have a NUMBER field named PTA_ISS_ID)</t>
+  </si>
+  <si>
+    <t>Data Stream Parent Table Error (Not Enabled) - The Data Stream Code (CCD_TEST4) has a parent table (DVM_ISSUES_HIST) that has not been enabled in the DVM (this requires the parent table to have a NUMBER field named PTA_ISS_ID)</t>
+  </si>
+  <si>
+    <t>Data Stream Parent Table Error (Not Enabled) - The Data Stream Code (CCD_TEST5) has a parent table (DVM_ISS_SEVERITY_HIST) that has not been enabled in the DVM (this requires the parent table to have a NUMBER field named PTA_ISS_ID)</t>
+  </si>
+  <si>
+    <t>Data Stream Validation Rule Error (no active validation rules) - The Data Stream (CCD_TEST2) has no associated active validation rules, at least one active validation rule must be defined for the given data stream before it can be used to validate data</t>
+  </si>
+  <si>
+    <t>Data Stream Validation Rule Error (no active validation rules) - The Data Stream (CCD_TEST3) has no associated active validation rules, at least one active validation rule must be defined for the given data stream before it can be used to validate data</t>
+  </si>
+  <si>
+    <t>Data Stream Validation Rule Error (no active validation rules) - The Data Stream (CCD_TEST4) has no associated active validation rules, at least one active validation rule must be defined for the given data stream before it can be used to validate data</t>
+  </si>
+  <si>
+    <t>Data Stream Validation Rule Error (no active validation rules) - The Data Stream (CCD_TEST5) has no associated active validation rules, at least one active validation rule must be defined for the given data stream before it can be used to validate data</t>
+  </si>
+  <si>
+    <t>Unmatched Template Placeholders (Issue Description) - The Validation Rule "Invalid Cruise Name" has an Issue Description Template that contains one or more unmatched placeholders (ABC, DEF) that are not not found in the data QC view (CCD_QC_CRUISE_V), either remove the placeholders from the template or update the data QC view to include the additional fields</t>
+  </si>
+  <si>
+    <t>Unmatched Template Placeholders (Issue Description) - The Validation Rule "Vessel Leg Overlap" has an Issue Description Template that contains one or more unmatched placeholders (XYZ) that are not not found in the data QC view (CCD_QC_LEG_OVERLAP_V), either remove the placeholders from the template or update the data QC view to include the additional fields</t>
+  </si>
+  <si>
+    <t>Unmatched Template Placeholders (Application Link) - The Validation Rule "Invalid Cruise Name" has an Application Link Template that contains one or more unmatched placeholders (ABC, DEF) that are not not found in the data QC view (CCD_QC_CRUISE_V), either remove the placeholders from the template or update the data QC view to include the additional fields</t>
+  </si>
+  <si>
+    <t>Unmatched Template Placeholders (Application Link) - The Validation Rule "Vessel Leg Overlap" has an Application Link Template that contains one or more unmatched placeholders (GHI, JKL) that are not not found in the data QC view (CCD_QC_LEG_OVERLAP_V), either remove the placeholders from the template or update the data QC view to include the additional fields</t>
   </si>
 </sst>
 </file>
@@ -112,18 +112,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -138,15 +132,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,7 +422,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" sqref="A1:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,140 +439,140 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="B17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -605,7 +593,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="81.140625" customWidth="1"/>
+    <col min="1" max="1" width="81.140625" customWidth="1"/>
+    <col min="2" max="2" width="135.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -621,84 +610,84 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
         <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -706,50 +695,50 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -762,7 +751,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,7 +1112,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/docs/test cases/DVM_PKG/verification_templates/category_7_DVM_config_error_verification_1.xlsx
+++ b/docs/test cases/DVM_PKG/verification_templates/category_7_DVM_config_error_verification_1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="33">
   <si>
     <t>ERR_SOURCE</t>
   </si>
@@ -97,6 +97,30 @@
   </si>
   <si>
     <t>Unmatched Template Placeholders (Application Link) - The Validation Rule "Vessel Leg Overlap" has an Application Link Template that contains one or more unmatched placeholders (GHI, JKL) that are not not found in the data QC view (CCD_QC_LEG_OVERLAP_V), either remove the placeholders from the template or update the data QC view to include the additional fields</t>
+  </si>
+  <si>
+    <t>Missing Data QC View Indicator Field (DVM_ISS_TYPES.IND_FIELD_NAME)</t>
+  </si>
+  <si>
+    <t>The Validation Rule (Cruise Leg Overlap) has an indicator field (MISSING_IND_FIELD_YN) that does not exist in the corresponding Data QC View (CCD_QC_LEG_OVERLAP_V), the data QC view must be updated to define the indicator field or the indicator field name must be changed to match a data QC view field</t>
+  </si>
+  <si>
+    <t>The Validation Rule (Missing Leg Gear) has an indicator field (MISSING_IND_FIELD2_YN) that does not exist in the corresponding Data QC View (CCD_QC_LEG_V), the data QC view must be updated to define the indicator field or the indicator field name must be changed to match a data QC view field</t>
+  </si>
+  <si>
+    <t>Invalid Data Type for Data QC View Indicator Field (DVM_ISS_TYPES.IND_FIELD_NAME)</t>
+  </si>
+  <si>
+    <t>The Validation Rule (Invalid Leg Dates) has an indicator field (CRUISE_LEG_ID) that has an invalid data type in the corresponding Data QC View (CCD_QC_LEG_V), the data QC view must be updated to define the indicator field as a VARCHAR, VARCHAR2, or CHAR data type</t>
+  </si>
+  <si>
+    <t>The Validation Rule (Mismatched Cruise Name and Fiscal Year) has an indicator field (CRUISE_ID) that has an invalid data type in the corresponding Data QC View (CCD_QC_CRUISE_V), the data QC view must be updated to define the indicator field as a VARCHAR, VARCHAR2, or CHAR data type</t>
+  </si>
+  <si>
+    <t>Data QC View (DVM_QC_OBJECTS)</t>
+  </si>
+  <si>
+    <t>The Data QC View (CCD_QC_CRUISE_V) does not contain the associated parent table's (CCD_CRUISE_LEGS) primary key field (CRUISE_LEG_ID), update the Data QC View to add the parent table's primary key field</t>
   </si>
 </sst>
 </file>
@@ -132,9 +156,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,11 +441,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B18"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,10 +472,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -460,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -468,7 +491,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -476,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -484,7 +507,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -492,7 +515,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -500,7 +523,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -508,15 +531,15 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -524,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -532,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -540,43 +563,80 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -585,10 +645,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B18"/>
+      <selection sqref="A1:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,10 +675,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -626,7 +686,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -634,7 +694,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -642,7 +702,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -650,7 +710,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -658,7 +718,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -666,7 +726,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -674,15 +734,15 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -690,7 +750,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -698,7 +758,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -706,39 +766,79 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -751,7 +851,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,7 +892,7 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'Export Worksheet'!A3</f>
-        <v>Data Stream (DVM_DATA_STREAMS)</v>
+        <v>Data QC View (DVM_QC_OBJECTS)</v>
       </c>
       <c r="B3" t="b">
         <f>EXACT('Export Worksheet'!A3,'Database Export'!A3)</f>
@@ -904,7 +1004,7 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'Export Worksheet'!A11</f>
-        <v>Inactive Validation Rules/QC Objects (DVM_ISS_TYPES/DVM_QC_OBJECTS)</v>
+        <v>Data Stream (DVM_DATA_STREAMS)</v>
       </c>
       <c r="B11" t="b">
         <f>EXACT('Export Worksheet'!A11,'Database Export'!A11)</f>
@@ -960,7 +1060,7 @@
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>'Export Worksheet'!A15</f>
-        <v>Issue Type Application Link Template Placeholders (DVM_ISS_TYPES.APP_LINK_TEMPLATE)</v>
+        <v>Inactive Validation Rules/QC Objects (DVM_ISS_TYPES/DVM_QC_OBJECTS)</v>
       </c>
       <c r="B15" t="b">
         <f>EXACT('Export Worksheet'!A15,'Database Export'!A15)</f>
@@ -974,7 +1074,7 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>'Export Worksheet'!A16</f>
-        <v>Issue Type Application Link Template Placeholders (DVM_ISS_TYPES.APP_LINK_TEMPLATE)</v>
+        <v>Invalid Data Type for Data QC View Indicator Field (DVM_ISS_TYPES.IND_FIELD_NAME)</v>
       </c>
       <c r="B16" t="b">
         <f>EXACT('Export Worksheet'!A16,'Database Export'!A16)</f>
@@ -988,7 +1088,7 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>'Export Worksheet'!A17</f>
-        <v>Issue Type Issue Description Template Placeholders (DVM_ISS_TYPES.ISS_TYPE_COMMENT_TEMPLATE)</v>
+        <v>Invalid Data Type for Data QC View Indicator Field (DVM_ISS_TYPES.IND_FIELD_NAME)</v>
       </c>
       <c r="B17" t="b">
         <f>EXACT('Export Worksheet'!A17,'Database Export'!A17)</f>
@@ -1002,7 +1102,7 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>'Export Worksheet'!A18</f>
-        <v>Issue Type Issue Description Template Placeholders (DVM_ISS_TYPES.ISS_TYPE_COMMENT_TEMPLATE)</v>
+        <v>Issue Type Application Link Template Placeholders (DVM_ISS_TYPES.APP_LINK_TEMPLATE)</v>
       </c>
       <c r="B18" t="b">
         <f>EXACT('Export Worksheet'!A18,'Database Export'!A18)</f>
@@ -1014,9 +1114,9 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" t="str">
         <f>'Export Worksheet'!A19</f>
-        <v>0</v>
+        <v>Issue Type Application Link Template Placeholders (DVM_ISS_TYPES.APP_LINK_TEMPLATE)</v>
       </c>
       <c r="B19" t="b">
         <f>EXACT('Export Worksheet'!A19,'Database Export'!A19)</f>
@@ -1028,9 +1128,9 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" t="str">
         <f>'Export Worksheet'!A20</f>
-        <v>0</v>
+        <v>Issue Type Issue Description Template Placeholders (DVM_ISS_TYPES.ISS_TYPE_COMMENT_TEMPLATE)</v>
       </c>
       <c r="B20" t="b">
         <f>EXACT('Export Worksheet'!A20,'Database Export'!A20)</f>
@@ -1042,9 +1142,9 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" t="str">
         <f>'Export Worksheet'!A21</f>
-        <v>0</v>
+        <v>Issue Type Issue Description Template Placeholders (DVM_ISS_TYPES.ISS_TYPE_COMMENT_TEMPLATE)</v>
       </c>
       <c r="B21" t="b">
         <f>EXACT('Export Worksheet'!A21,'Database Export'!A21)</f>
@@ -1056,9 +1156,9 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" t="str">
         <f>'Export Worksheet'!A22</f>
-        <v>0</v>
+        <v>Missing Data QC View Indicator Field (DVM_ISS_TYPES.IND_FIELD_NAME)</v>
       </c>
       <c r="B22" t="b">
         <f>EXACT('Export Worksheet'!A22,'Database Export'!A22)</f>
@@ -1070,9 +1170,9 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" t="str">
         <f>'Export Worksheet'!A23</f>
-        <v>0</v>
+        <v>Missing Data QC View Indicator Field (DVM_ISS_TYPES.IND_FIELD_NAME)</v>
       </c>
       <c r="B23" t="b">
         <f>EXACT('Export Worksheet'!A23,'Database Export'!A23)</f>
